--- a/KeywordDriven_Framework/ExcelTestFiles/Reusable/Registration.xlsx
+++ b/KeywordDriven_Framework/ExcelTestFiles/Reusable/Registration.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>S.No</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Iteration</t>
+  </si>
+  <si>
+    <t>Reusable</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,9 +758,11 @@
       <c r="C11" s="1"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
         <v>36</v>
       </c>
